--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_110.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_110.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,670 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4326923076923077</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.3, 20.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[('0:00:31.248820', '0:00:38.911405')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:32.874217', '0:00:50.277573')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:03.780000', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.935986, 12.498707)]</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1181,9 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(39.84, 47.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
